--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Đăng ký user</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -255,12 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -271,6 +277,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +585,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,234 +594,273 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -39,18 +39,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Đăng nhập user vào systems</t>
-  </si>
-  <si>
-    <t>Signin</t>
-  </si>
-  <si>
-    <t>Đăng ký user</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -58,13 +46,58 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/auth</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản mới</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/forgotPassword.html</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Lấy lại mật khẩu</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/user/show/userID</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>View user profile</t>
+  </si>
+  <si>
+    <t>Edit user profile</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Change avatar</t>
+  </si>
+  <si>
+    <t>Friends function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +125,14 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,10 +302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -277,12 +319,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,25 +629,25 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -620,79 +664,113 @@
       <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -859,8 +937,12 @@
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="66" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Friends function</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -293,6 +296,45 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -306,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -320,10 +362,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,32 +671,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -661,44 +707,49 @@
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -706,236 +757,265 @@
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>

--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="18195" windowHeight="12330" tabRatio="493"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Sign in</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -93,7 +90,64 @@
     <t>Friends function</t>
   </si>
   <si>
+    <t>AuthController</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>UserController</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Render ra trang đăng kí tài khoản mới</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Render ra trang edit user profile</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>changePass</t>
+  </si>
+  <si>
+    <t>Các chức năng liên quan đến friends</t>
+  </si>
+  <si>
+    <t>editAvatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change avatar </t>
+  </si>
+  <si>
+    <t>Leaning</t>
   </si>
 </sst>
 </file>
@@ -156,12 +210,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -173,36 +227,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -218,36 +242,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -263,7 +257,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -275,72 +269,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -348,27 +310,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,358 +639,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G36"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -148,13 +148,106 @@
   </si>
   <si>
     <t>Leaning</t>
+  </si>
+  <si>
+    <t>LearningController</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/learning</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load các learning </t>
+  </si>
+  <si>
+    <t>checkLearning</t>
+  </si>
+  <si>
+    <t>loadEditForm</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>getBooks</t>
+  </si>
+  <si>
+    <t>deleteLearning</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>saveHistory</t>
+  </si>
+  <si>
+    <t>getMissLesson</t>
+  </si>
+  <si>
+    <t>Check các điều kiện khi học learning</t>
+  </si>
+  <si>
+    <t>Load form create</t>
+  </si>
+  <si>
+    <t>edit learning</t>
+  </si>
+  <si>
+    <t>load form edit learning</t>
+  </si>
+  <si>
+    <t>Thêm một learning</t>
+  </si>
+  <si>
+    <t>Lấy danh sách các book khi tạo một learning</t>
+  </si>
+  <si>
+    <t>Xóa một learning</t>
+  </si>
+  <si>
+    <t>Học một learning</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Lấy các lesson use miss</t>
+  </si>
+  <si>
+    <t>Lưu lịch sử học của use</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/</t>
+  </si>
+  <si>
+    <t>IndexController</t>
+  </si>
+  <si>
+    <t>Lấy các thông tin cho màn hình home trước khi đăng nhập</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/home/getContent</t>
+  </si>
+  <si>
+    <t>getContent</t>
+  </si>
+  <si>
+    <t>HomeController</t>
+  </si>
+  <si>
+    <t>Thống kê history và các misslesson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +287,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -310,18 +409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -337,6 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,37 +760,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -695,396 +798,506 @@
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1096,9 +1309,11 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B27" r:id="rId3"/>
+    <hyperlink ref="B28" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
   <si>
     <t>LINK JAPTOOL</t>
   </si>
@@ -241,22 +241,107 @@
   </si>
   <si>
     <t>Thống kê history và các misslesson</t>
+  </si>
+  <si>
+    <t>UserTestResultController</t>
+  </si>
+  <si>
+    <t>saveResult</t>
+  </si>
+  <si>
+    <t>lưu kết quả làm bài Test</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/page/about</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>PageController</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Hiển thị bài viết about us</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/page/guide</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>Hiển thị bài viết hướng dẫn sử dụng system</t>
+  </si>
+  <si>
+    <t>http://localhost:1337/japtool/page/contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Hiển thị Contact page</t>
+  </si>
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>KanjiController</t>
+  </si>
+  <si>
+    <t>lesson</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách từ vựng Kanji theo điều hiện truyền vào URL</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học luyện tập Kanji (trắc nghiệm)</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>VocabularyController</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách từ vựng Vocabulary theo điều hiện truyền vào URL</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học luyện tập Vocabulary (trắc nghiệm)</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>TestController</t>
+  </si>
+  <si>
+    <t>Hiện thị ra nội dung bài test</t>
+  </si>
+  <si>
+    <t>Xem trước bài test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,13 +373,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF008000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C5C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -407,39 +525,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,6 +618,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC9C5C6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -742,575 +918,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="15" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A6:A15"/>
+    <mergeCell ref="C16:C26"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B27" r:id="rId3"/>
-    <hyperlink ref="B28" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="B35" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId5"/>
